--- a/doc/notenrollen_tasks.xlsx
+++ b/doc/notenrollen_tasks.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="55">
   <si>
     <t xml:space="preserve">XML-Technologien: Notenrollen</t>
   </si>
@@ -43,6 +43,9 @@
     <t xml:space="preserve">Owner</t>
   </si>
   <si>
+    <t xml:space="preserve">Due date</t>
+  </si>
+  <si>
     <t xml:space="preserve">Comment</t>
   </si>
   <si>
@@ -82,6 +85,9 @@
     <t xml:space="preserve">Erik</t>
   </si>
   <si>
+    <t xml:space="preserve">abandoned</t>
+  </si>
+  <si>
     <t xml:space="preserve">Inhalt</t>
   </si>
   <si>
@@ -94,7 +100,10 @@
     <t xml:space="preserve">Schema für Source XML</t>
   </si>
   <si>
-    <t xml:space="preserve">sollte es schon geben</t>
+    <t xml:space="preserve">Sandra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sollte es für Lido schon geben</t>
   </si>
   <si>
     <t xml:space="preserve">Schema für XSLTs</t>
@@ -109,12 +118,21 @@
     <t xml:space="preserve">XSLT für Katalogdarstellung</t>
   </si>
   <si>
+    <t xml:space="preserve">BaseX Integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samuel, Erik</t>
+  </si>
+  <si>
     <t xml:space="preserve">XQuery für Suchanfragen</t>
   </si>
   <si>
     <t xml:space="preserve">Website Integration</t>
   </si>
   <si>
+    <t xml:space="preserve">alle</t>
+  </si>
+  <si>
     <t xml:space="preserve">Website Framework</t>
   </si>
   <si>
@@ -124,7 +142,7 @@
     <t xml:space="preserve">Frontend</t>
   </si>
   <si>
-    <t xml:space="preserve">Christian</t>
+    <t xml:space="preserve">Christian, Sarah</t>
   </si>
   <si>
     <t xml:space="preserve">Webserver Setup</t>
@@ -140,9 +158,6 @@
   </si>
   <si>
     <t xml:space="preserve">irgendwie einbinden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sebastian</t>
   </si>
   <si>
     <t xml:space="preserve">REST</t>
@@ -176,8 +191,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -440,7 +456,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -557,6 +573,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -565,6 +593,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -574,6 +606,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -581,7 +617,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -702,22 +738,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="3.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="41.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.38"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="0" width="19.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -730,6 +767,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="1"/>
@@ -739,9 +777,10 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I2" s="1"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>1</v>
@@ -761,175 +800,197 @@
       <c r="G3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="I3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="n">
         <v>0</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="13"/>
-      <c r="N4" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="13"/>
       <c r="O4" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
       <c r="D5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F5" s="17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="O5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="N5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8"/>
       <c r="B6" s="18" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6" s="22"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I6" s="22"/>
+      <c r="O6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8"/>
       <c r="B7" s="18"/>
       <c r="C7" s="19"/>
       <c r="D7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>19</v>
-      </c>
       <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8"/>
       <c r="B8" s="18"/>
       <c r="C8" s="19"/>
       <c r="D8" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="22" t="s">
         <v>21</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>14</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I8" s="23"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8"/>
       <c r="B9" s="24" t="n">
         <v>2</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="29" t="n">
+        <v>42923</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8"/>
       <c r="B10" s="24"/>
       <c r="C10" s="25"/>
       <c r="D10" s="20" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E10" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G10" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="30" t="n">
+        <v>42923</v>
+      </c>
+      <c r="I10" s="22"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8"/>
       <c r="B11" s="24"/>
       <c r="C11" s="25"/>
       <c r="D11" s="15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8"/>
@@ -937,287 +998,341 @@
         <v>3</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8"/>
       <c r="B13" s="18"/>
       <c r="C13" s="19"/>
       <c r="D13" s="20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E13" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="22" t="s">
-        <v>14</v>
-      </c>
       <c r="G13" s="22" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8"/>
       <c r="B14" s="18"/>
       <c r="C14" s="19"/>
       <c r="D14" s="20" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E14" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="30" t="n">
+        <v>42920</v>
+      </c>
+      <c r="I14" s="22"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="31" t="n">
+        <v>42923</v>
+      </c>
+      <c r="I15" s="23"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8"/>
+      <c r="B16" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="34" t="n">
+        <v>42920</v>
+      </c>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8"/>
+      <c r="B18" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8"/>
+      <c r="B20" s="24" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8"/>
-      <c r="B15" s="29" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="27" t="s">
+      <c r="G20" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="38" t="n">
+        <v>42920</v>
+      </c>
+      <c r="I20" s="37"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8"/>
+      <c r="B21" s="39" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="28"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="15" t="s">
+      <c r="G21" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="H21" s="34" t="n">
+        <v>42920</v>
+      </c>
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8"/>
+      <c r="B22" s="18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="17"/>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8"/>
-      <c r="B17" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="20" t="s">
+      <c r="G22" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="30" t="n">
+        <v>42920</v>
+      </c>
+      <c r="I22" s="22"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8"/>
+      <c r="B23" s="24" t="n">
+        <v>9</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8"/>
+      <c r="B24" s="39" t="n">
+        <v>10</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="H24" s="34" t="n">
+        <v>42923</v>
+      </c>
+      <c r="I24" s="17"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3"/>
+      <c r="B25" s="24" t="n">
+        <v>11</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="22"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" s="23"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8"/>
-      <c r="B19" s="24" t="n">
-        <v>6</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="33"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8"/>
-      <c r="B20" s="34" t="n">
-        <v>7</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8"/>
-      <c r="B21" s="18" t="n">
-        <v>8</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8"/>
-      <c r="B22" s="24" t="n">
-        <v>9</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8"/>
-      <c r="B23" s="34" t="n">
-        <v>10</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3"/>
-      <c r="B24" s="24" t="n">
-        <v>11</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
+      <c r="G25" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="40" t="n">
+        <v>42923</v>
+      </c>
+      <c r="I25" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H2"/>
+    <mergeCell ref="B1:I2"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C9:C11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
   </mergeCells>
-  <conditionalFormatting sqref="E4:E24">
+  <conditionalFormatting sqref="E4:E25">
     <cfRule type="containsText" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="mandatory" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F24">
+  <conditionalFormatting sqref="F4:F25">
     <cfRule type="containsText" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="in progress" dxfId="1"/>
     <cfRule type="containsText" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="done" dxfId="2"/>
     <cfRule type="containsText" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="open" dxfId="3"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F4:F24" type="list">
-      <formula1>$N$3:$N$5</formula1>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E4:E25" type="list">
+      <formula1>$P$3:$P$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E4:E24" type="list">
-      <formula1>$O$3:$O$4</formula1>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F4:F25" type="list">
+      <formula1>$O$3:$O$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
